--- a/Documentación_G1/1. ELICITACION/1.6 BACKLOG/G1_Backlog_V5.xlsx
+++ b/Documentación_G1/1. ELICITACION/1.6 BACKLOG/G1_Backlog_V5.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uespe-my.sharepoint.com/personal/vnguaiguacundo_espe_edu_ec/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18E90798-08C2-4E43-9787-68420FF1C3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9368BFB-987F-4C33-A900-32802C24EAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint0" sheetId="2" r:id="rId2"/>
-    <sheet name="Burdonchart" sheetId="3" r:id="rId3"/>
+    <sheet name="Historial de versionamiento" sheetId="4" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId2"/>
+    <sheet name="Sprint0" sheetId="2" r:id="rId3"/>
+    <sheet name="Burdonchart" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
+  <si>
+    <t>Historial de versionamiento</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>VERSIÓN</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>AUTORES</t>
+  </si>
+  <si>
+    <t>Versión inicial</t>
+  </si>
+  <si>
+    <t>Tammy Caizapanta, Valeria Guaiguacundo, Estefany Pincha, Benjamin Robalino</t>
+  </si>
+  <si>
+    <t>Planteamiento de cada requisito en Backlog</t>
+  </si>
+  <si>
+    <t>Planteamiento de cada requisito en Sprint</t>
+  </si>
+  <si>
+    <t>Modificación de tiempo por Sprint</t>
+  </si>
+  <si>
+    <t>Versión final</t>
+  </si>
   <si>
     <t>BACKLOG</t>
   </si>
@@ -363,7 +397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -437,8 +471,40 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,8 +541,26 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -528,11 +612,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -625,6 +868,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -877,26 +1177,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999D517A-DA86-4F78-A8D8-F882C216247B}">
+  <dimension ref="B2:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="21">
+      <c r="B2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+    </row>
+    <row r="4" spans="2:10" ht="14.25">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="2:10" ht="15">
+      <c r="B5" s="41"/>
+      <c r="C5" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" spans="2:10" ht="66.75" customHeight="1">
+      <c r="B6" s="41"/>
+      <c r="C6" s="50">
+        <v>45645</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52">
+        <v>1</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" spans="2:10" ht="66.75" customHeight="1">
+      <c r="B7" s="41"/>
+      <c r="C7" s="50">
+        <v>45648</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52">
+        <v>2</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="2:10" ht="66.75" customHeight="1">
+      <c r="B8" s="41"/>
+      <c r="C8" s="50">
+        <v>45664</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52">
+        <v>3</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="51"/>
+      <c r="I8" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="2:10" ht="66.75" customHeight="1">
+      <c r="B9" s="41"/>
+      <c r="C9" s="50">
+        <v>45666</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52">
+        <v>4</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="2:10" ht="66.75" customHeight="1">
+      <c r="B10" s="41"/>
+      <c r="C10" s="50">
+        <v>45680</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52">
+        <v>5</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="2:10" ht="14.25">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA221"/>
+  <dimension ref="A1:AA179"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="9" customWidth="1"/>
-    <col min="5" max="6" width="40.42578125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="14" style="9" customWidth="1"/>
-    <col min="9" max="28" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="9" customWidth="1"/>
+    <col min="5" max="6" width="39.140625" style="23" customWidth="1"/>
+    <col min="7" max="9" width="12" style="9" customWidth="1"/>
+    <col min="10" max="28" width="12.42578125" style="9" customWidth="1"/>
     <col min="29" max="16384" width="12.7109375" style="9"/>
   </cols>
   <sheetData>
@@ -932,7 +1409,7 @@
     <row r="2" spans="1:27" ht="35.25" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="35" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -960,7 +1437,7 @@
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
     </row>
-    <row r="3" spans="1:27" ht="13.5" customHeight="1">
+    <row r="3" spans="1:27">
       <c r="A3" s="8"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -989,31 +1466,31 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+    <row r="4" spans="1:27">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -1023,164 +1500,164 @@
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
     </row>
-    <row r="5" spans="1:27" ht="53.25" customHeight="1">
+    <row r="5" spans="1:27" ht="55.5" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="17" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:27" ht="53.25" customHeight="1">
+    <row r="6" spans="1:27" ht="55.5" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:27" ht="53.25" customHeight="1">
+    <row r="7" spans="1:27" ht="55.5" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:27" ht="53.25" customHeight="1">
+    <row r="8" spans="1:27" ht="55.5" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:27" ht="53.25" customHeight="1">
+    <row r="9" spans="1:27" ht="55.5" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:27" ht="53.25" customHeight="1">
+    <row r="10" spans="1:27" ht="55.5" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -1364,48 +1841,6 @@
     <row r="177" ht="15.75" customHeight="1"/>
     <row r="178" ht="15.75" customHeight="1"/>
     <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
@@ -1415,7 +1850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1423,7 +1858,7 @@
   <dimension ref="A2:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15"/>
@@ -1442,7 +1877,7 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="25" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
@@ -1455,28 +1890,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="27" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60.75">
@@ -1516,31 +1951,31 @@
     <row r="5" spans="1:9">
       <c r="B5" s="30"/>
       <c r="C5" s="28" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="27" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="27" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="31" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30">
@@ -1549,13 +1984,13 @@
     </row>
     <row r="7" spans="1:9" ht="30.75">
       <c r="B7" s="31" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30">
@@ -1564,13 +1999,13 @@
     </row>
     <row r="8" spans="1:9" ht="30.75">
       <c r="B8" s="31" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30">
@@ -1579,13 +2014,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="31" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30">
@@ -1600,7 +2035,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="H11" s="32" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I11" s="33">
         <f>SUM(I6:I9)</f>
@@ -1613,7 +2048,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="25" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
@@ -1626,28 +2061,28 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="27" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60.75">
@@ -1687,28 +2122,28 @@
     <row r="16" spans="1:9">
       <c r="B16" s="30"/>
       <c r="C16" s="28" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="27" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="27" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30.75">
       <c r="B17" s="31" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="30">
@@ -1717,13 +2152,13 @@
     </row>
     <row r="18" spans="1:9" ht="30.75">
       <c r="B18" s="31" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30">
@@ -1732,13 +2167,13 @@
     </row>
     <row r="19" spans="1:9" ht="30.75">
       <c r="B19" s="31" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="30">
@@ -1753,7 +2188,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="H21" s="32" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I21" s="30">
         <f>SUM(I17:I19)</f>
@@ -1766,7 +2201,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="25" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
@@ -1779,28 +2214,28 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="27" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="60.75">
@@ -1840,28 +2275,28 @@
     <row r="26" spans="1:9">
       <c r="B26" s="30"/>
       <c r="C26" s="28" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="27" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="27" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="31" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30">
@@ -1870,13 +2305,13 @@
     </row>
     <row r="28" spans="1:9" ht="30.75">
       <c r="B28" s="31" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="30">
@@ -1885,13 +2320,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="31" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30">
@@ -1906,7 +2341,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="H31" s="32" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I31" s="30">
         <f>SUM(I27:I29)</f>
@@ -1919,7 +2354,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="25" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
@@ -1932,28 +2367,28 @@
     </row>
     <row r="34" spans="1:9">
       <c r="B34" s="27" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="45.75">
@@ -1993,43 +2428,43 @@
     <row r="36" spans="1:9">
       <c r="B36" s="30"/>
       <c r="C36" s="28" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="27" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="27" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="31" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30.75">
       <c r="B38" s="31" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="30">
@@ -2038,17 +2473,17 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="31" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2058,11 +2493,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="H41" s="32" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I41" s="30">
-        <f>SUM(I37:I39)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2071,7 +2505,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="25" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
@@ -2084,28 +2518,28 @@
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="27" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="45.75">
@@ -2145,28 +2579,28 @@
     <row r="46" spans="1:9">
       <c r="B46" s="30"/>
       <c r="C46" s="28" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="27" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H46" s="30"/>
       <c r="I46" s="27" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="31" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="30">
@@ -2175,13 +2609,13 @@
     </row>
     <row r="48" spans="1:9">
       <c r="B48" s="31" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H48" s="30"/>
       <c r="I48" s="30">
@@ -2190,13 +2624,13 @@
     </row>
     <row r="49" spans="1:9" ht="45.75">
       <c r="B49" s="31" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H49" s="30"/>
       <c r="I49" s="30">
@@ -2205,13 +2639,13 @@
     </row>
     <row r="50" spans="1:9" ht="30.75">
       <c r="B50" s="31" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H50" s="30"/>
       <c r="I50" s="30">
@@ -2225,7 +2659,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="H52" s="32" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I52" s="30">
         <f>SUM(I47:I50)</f>
@@ -2238,7 +2672,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="25" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
@@ -2251,28 +2685,28 @@
     </row>
     <row r="55" spans="1:9">
       <c r="B55" s="27" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="45.75">
@@ -2312,28 +2746,28 @@
     <row r="57" spans="1:9">
       <c r="B57" s="30"/>
       <c r="C57" s="28" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
       <c r="G57" s="27" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H57" s="30"/>
       <c r="I57" s="27" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="31" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H58" s="30"/>
       <c r="I58" s="30">
@@ -2342,13 +2776,13 @@
     </row>
     <row r="59" spans="1:9" ht="30.75">
       <c r="B59" s="31" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H59" s="30"/>
       <c r="I59" s="30">
@@ -2357,13 +2791,13 @@
     </row>
     <row r="60" spans="1:9">
       <c r="B60" s="31" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H60" s="30"/>
       <c r="I60" s="30">
@@ -2378,7 +2812,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="H62" s="32" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I62" s="30">
         <f>SUM(I58:I60)</f>
@@ -2391,11 +2825,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6856CBD7-4ADF-4B4E-BD9A-DD0893FAC19B}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2443,25 +2879,25 @@
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="1"/>
@@ -2474,7 +2910,7 @@
     <row r="4" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
@@ -2498,7 +2934,7 @@
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
@@ -2520,7 +2956,7 @@
     <row r="6" spans="1:16">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="2"/>
@@ -2542,7 +2978,7 @@
     <row r="7" spans="1:16">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="2"/>
@@ -2564,7 +3000,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2"/>
@@ -2586,7 +3022,7 @@
     <row r="9" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
@@ -2608,7 +3044,7 @@
     <row r="10" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
@@ -2630,7 +3066,7 @@
     <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
@@ -2652,7 +3088,7 @@
     <row r="12" spans="1:16">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
@@ -2674,7 +3110,7 @@
     <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
@@ -2696,7 +3132,7 @@
     <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
@@ -2718,7 +3154,7 @@
     <row r="15" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
@@ -2740,7 +3176,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
@@ -2762,7 +3198,7 @@
     <row r="17" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
@@ -2784,7 +3220,7 @@
     <row r="18" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
@@ -2806,7 +3242,7 @@
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
@@ -2828,7 +3264,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
@@ -2910,19 +3346,19 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C25" s="2">
         <v>5</v>
@@ -2942,19 +3378,19 @@
       <c r="H25" s="2">
         <v>5</v>
       </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
     </row>
     <row r="26" spans="1:16" ht="35.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
@@ -2974,14 +3410,14 @@
       <c r="H26" s="2">
         <v>0</v>
       </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1"/>
@@ -2992,14 +3428,14 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1"/>
@@ -3010,14 +3446,14 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1"/>
@@ -3028,14 +3464,14 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1"/>
@@ -3046,14 +3482,14 @@
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1"/>
@@ -3064,14 +3500,14 @@
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1"/>
@@ -3082,14 +3518,14 @@
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1"/>
@@ -3100,14 +3536,14 @@
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1"/>
@@ -3118,14 +3554,14 @@
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1"/>
@@ -3136,14 +3572,14 @@
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1"/>
@@ -3154,14 +3590,14 @@
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1"/>
@@ -3172,14 +3608,14 @@
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1"/>
@@ -3190,14 +3626,14 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1"/>
@@ -3208,14 +3644,14 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1"/>
@@ -3226,14 +3662,14 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1"/>
@@ -3244,14 +3680,14 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1"/>
@@ -3262,14 +3698,14 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1"/>
@@ -20525,6 +20961,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="244fc9be-a6af-466c-907c-aa3b3cb488ca" xsi:nil="true"/>
@@ -20532,7 +20977,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001B6514E6C5C14B4298D86A4F64E0F79F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bbc0358bf515be4e8d6e2b70987b289e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="244fc9be-a6af-466c-907c-aa3b3cb488ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="749f3115b2865d5502f446a0938fcd8f" ns3:_="">
     <xsd:import namespace="244fc9be-a6af-466c-907c-aa3b3cb488ca"/>
@@ -20688,23 +21133,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AEAAED-9742-42B1-A165-CEE95D0C5A34}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C16407C-B7CD-4C55-B5C3-6376A6E678A8}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8AF6DF-4FC3-4321-A42A-DC4DB2BDBB1B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AEAAED-9742-42B1-A165-CEE95D0C5A34}"/>
 </file>
--- a/Documentación_G1/1. ELICITACION/1.6 BACKLOG/G1_Backlog_V5.xlsx
+++ b/Documentación_G1/1. ELICITACION/1.6 BACKLOG/G1_Backlog_V5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uespe-my.sharepoint.com/personal/vnguaiguacundo_espe_edu_ec/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9368BFB-987F-4C33-A900-32802C24EAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A20718A6-5B9B-4FED-B7D3-A6439C3BDAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de versionamiento" sheetId="4" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <t>El programa deberá tener un reconocimiento de código único para su almacenamiento en la base de datos.</t>
   </si>
   <si>
-    <t>Generar una base de datos con los productos utilizados en la cafetería y tener una gestión del inventario correcta.</t>
+    <t>Generar una lista con los productos utilizados en la cafetería y tener una gestión del inventario correcta.</t>
   </si>
   <si>
     <t>Alta</t>
@@ -131,7 +131,7 @@
     <t>Buscar productos</t>
   </si>
   <si>
-    <t>El programa deberá mostrar la información del producto (Nombre, proveedor, valor, existencias) al ingresar su código único</t>
+    <t>El programa deberá mostrar la información del producto (Nombre, cantidad) al ingresar su código único</t>
   </si>
   <si>
     <t>Facilitar la modificación de los datos de los productos</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">Entrada de productos </t>
   </si>
   <si>
-    <t>El programa deberá registrar la entrada y salida de productos, utilizando un codigo unico para cada producto.</t>
+    <t>El programa deberá registrar la entrada y salida de productos, utilizando un código unico para cada producto.</t>
   </si>
   <si>
     <t>Tener un control actualizado de los productos ingresados al inventario</t>
@@ -167,7 +167,7 @@
     <t>Eliminar productos</t>
   </si>
   <si>
-    <t>El programa deberá permitir la eliminación de productos ya no adquiridos.</t>
+    <t>El programa deberá permitir la eliminación de productos ya no adquiridos o terminados.</t>
   </si>
   <si>
     <t>Mantener un registro de los productos ya no adquiridos.</t>
@@ -227,7 +227,7 @@
     <t>REQ001-2</t>
   </si>
   <si>
-    <t>Crear un campo para ingresar el código único, nombre, proveedor, cantidad, precio del producto.</t>
+    <t>Crear un campo para ingresar el código único, nombre, cantidad del producto.</t>
   </si>
   <si>
     <t>REQ001-3</t>
@@ -863,12 +863,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -896,15 +890,6 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
@@ -925,6 +910,21 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -1180,9 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999D517A-DA86-4F78-A8D8-F882C216247B}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1198,153 +1196,153 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="21">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="4" spans="2:10" ht="14.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:10" ht="15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="55" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="55" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="55" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="2:10" ht="66.75" customHeight="1">
-      <c r="B6" s="41"/>
-      <c r="C6" s="50">
+      <c r="B6" s="39"/>
+      <c r="C6" s="45">
         <v>45645</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52">
+      <c r="D6" s="46"/>
+      <c r="E6" s="47">
         <v>1</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="53" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="54" t="s">
+      <c r="H6" s="46"/>
+      <c r="I6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="2:10" ht="66.75" customHeight="1">
-      <c r="B7" s="41"/>
-      <c r="C7" s="50">
+      <c r="B7" s="39"/>
+      <c r="C7" s="45">
         <v>45648</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52">
+      <c r="D7" s="46"/>
+      <c r="E7" s="47">
         <v>2</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="54" t="s">
+      <c r="H7" s="46"/>
+      <c r="I7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="2:10" ht="66.75" customHeight="1">
-      <c r="B8" s="41"/>
-      <c r="C8" s="50">
+      <c r="B8" s="39"/>
+      <c r="C8" s="45">
         <v>45664</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52">
+      <c r="D8" s="46"/>
+      <c r="E8" s="47">
         <v>3</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="53" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="54" t="s">
+      <c r="H8" s="46"/>
+      <c r="I8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="42"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="2:10" ht="66.75" customHeight="1">
-      <c r="B9" s="41"/>
-      <c r="C9" s="50">
+      <c r="B9" s="39"/>
+      <c r="C9" s="45">
         <v>45666</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52">
+      <c r="D9" s="46"/>
+      <c r="E9" s="47">
         <v>4</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="53" t="s">
+      <c r="F9" s="46"/>
+      <c r="G9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="54" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="42"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="2:10" ht="66.75" customHeight="1">
-      <c r="B10" s="41"/>
-      <c r="C10" s="50">
+      <c r="B10" s="39"/>
+      <c r="C10" s="45">
         <v>45680</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52">
+      <c r="D10" s="46"/>
+      <c r="E10" s="47">
         <v>5</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="53" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="54" t="s">
+      <c r="H10" s="46"/>
+      <c r="I10" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="42"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="2:10" ht="14.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1361,13 +1359,11 @@
   </sheetPr>
   <dimension ref="A1:AA179"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="9" customWidth="1"/>
     <col min="3" max="3" width="20.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" style="9" customWidth="1"/>
@@ -1408,16 +1404,16 @@
     </row>
     <row r="2" spans="1:27" ht="35.25" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -1857,8 +1853,8 @@
   </sheetPr>
   <dimension ref="A2:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15"/>
@@ -1933,7 +1929,7 @@
       </c>
       <c r="F4" s="29" t="str">
         <f>+Backlog!F5</f>
-        <v>Generar una base de datos con los productos utilizados en la cafetería y tener una gestión del inventario correcta.</v>
+        <v>Generar una lista con los productos utilizados en la cafetería y tener una gestión del inventario correcta.</v>
       </c>
       <c r="G4" s="29">
         <f>+Backlog!G5</f>
@@ -2100,7 +2096,7 @@
       </c>
       <c r="E15" s="29" t="str">
         <f>+Backlog!E6</f>
-        <v>El programa deberá mostrar la información del producto (Nombre, proveedor, valor, existencias) al ingresar su código único</v>
+        <v>El programa deberá mostrar la información del producto (Nombre, cantidad) al ingresar su código único</v>
       </c>
       <c r="F15" s="29" t="str">
         <f>+Backlog!F6</f>
@@ -2253,7 +2249,7 @@
       </c>
       <c r="E25" s="29" t="str">
         <f>+Backlog!E7</f>
-        <v>El programa deberá registrar la entrada y salida de productos, utilizando un codigo unico para cada producto.</v>
+        <v>El programa deberá registrar la entrada y salida de productos, utilizando un código unico para cada producto.</v>
       </c>
       <c r="F25" s="29" t="str">
         <f>+Backlog!F7</f>
@@ -2557,7 +2553,7 @@
       </c>
       <c r="E45" s="29" t="str">
         <f>+Backlog!E9</f>
-        <v>El programa deberá permitir la eliminación de productos ya no adquiridos.</v>
+        <v>El programa deberá permitir la eliminación de productos ya no adquiridos o terminados.</v>
       </c>
       <c r="F45" s="29" t="str">
         <f>+Backlog!F9</f>
@@ -3475,12 +3471,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
       <c r="H30" s="1"/>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
@@ -3493,12 +3489,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
       <c r="H31" s="1"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
@@ -3511,12 +3507,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
       <c r="H32" s="1"/>
       <c r="I32" s="56"/>
       <c r="J32" s="56"/>
@@ -3529,12 +3525,12 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
       <c r="H33" s="1"/>
       <c r="I33" s="56"/>
       <c r="J33" s="56"/>
@@ -3547,12 +3543,12 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
       <c r="H34" s="1"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
@@ -3565,12 +3561,12 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="1"/>
       <c r="I35" s="56"/>
       <c r="J35" s="56"/>
@@ -3583,12 +3579,12 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
       <c r="H36" s="1"/>
       <c r="I36" s="56"/>
       <c r="J36" s="56"/>
@@ -3601,12 +3597,12 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="1"/>
       <c r="I37" s="56"/>
       <c r="J37" s="56"/>
@@ -20961,23 +20957,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="244fc9be-a6af-466c-907c-aa3b3cb488ca" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001B6514E6C5C14B4298D86A4F64E0F79F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bbc0358bf515be4e8d6e2b70987b289e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="244fc9be-a6af-466c-907c-aa3b3cb488ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="749f3115b2865d5502f446a0938fcd8f" ns3:_="">
     <xsd:import namespace="244fc9be-a6af-466c-907c-aa3b3cb488ca"/>
@@ -21133,14 +21112,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="244fc9be-a6af-466c-907c-aa3b3cb488ca" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8AF6DF-4FC3-4321-A42A-DC4DB2BDBB1B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AEAAED-9742-42B1-A165-CEE95D0C5A34}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C16407C-B7CD-4C55-B5C3-6376A6E678A8}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8AF6DF-4FC3-4321-A42A-DC4DB2BDBB1B}"/>
 </file>